--- a/oouchi/パターン評価結果/【大内担当分のみ】パターン検証.xlsx
+++ b/oouchi/パターン評価結果/【大内担当分のみ】パターン検証.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f9b2f6fde57a4b9/プロジェクト活動/2019年度/topse_SW実践演習/05_パターン評価/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkrf\OneDrive\プロジェクト活動\2019年度\topse_SW実践演習\05_パターン評価\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="8_{B4CDBF86-405C-453D-BA1D-5B4EE1AF9EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31FBCF28-579B-46D7-BDAF-E195B6BB198F}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="8_{B4CDBF86-405C-453D-BA1D-5B4EE1AF9EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07C27D59-DA3A-494F-BD3F-1097B3095E45}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="パターン検証" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>■前提</t>
   </si>
@@ -292,18 +292,10 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Accuracy</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1h23m46s</t>
   </si>
   <si>
     <t>InceptionNet v3 (299x299, batch128)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>なし</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -381,7 +373,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>表1. 「抽出パターン適用ガイドライン」有無別のLossとAccuracy</t>
+    <t>null</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表1. 「抽出パターン適用ガイドライン」有無別のLossとAccuracy （背景色が赤セルはベストスコア）</t>
     <rPh sb="0" eb="1">
       <t>ヒョウ</t>
     </rPh>
@@ -397,10 +401,19 @@
     <rPh sb="22" eb="23">
       <t>ベツ</t>
     </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>null</t>
+    <t>1h32m02s</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -408,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -479,13 +492,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -508,7 +514,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +545,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1077,15 +1089,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
@@ -1166,7 +1169,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1181,29 +1184,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1254,6 +1234,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,81 +1292,58 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1561,8 +1567,8 @@
   </sheetPr>
   <dimension ref="A1:AG993"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -1575,7 +1581,7 @@
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="10" style="3" customWidth="1"/>
     <col min="13" max="13" width="32" style="3" customWidth="1"/>
@@ -1623,13 +1629,13 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2"/>
@@ -1666,13 +1672,13 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="2"/>
@@ -1709,13 +1715,13 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="2"/>
@@ -1752,13 +1758,13 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2"/>
@@ -1795,13 +1801,13 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2"/>
@@ -1838,13 +1844,13 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="18">
         <v>50</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="2"/>
@@ -1881,13 +1887,13 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="15">
         <v>1E-3</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2"/>
@@ -1924,13 +1930,13 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="2"/>
@@ -1966,13 +1972,13 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="2"/>
@@ -2009,13 +2015,13 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="28">
+      <c r="C11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="17">
         <v>128</v>
       </c>
       <c r="E11" s="2"/>
@@ -2052,13 +2058,13 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="2"/>
@@ -2095,13 +2101,13 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2"/>
@@ -2241,28 +2247,28 @@
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="35" t="s">
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="61" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="2"/>
@@ -2286,34 +2292,34 @@
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7" t="s">
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="36"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2335,34 +2341,34 @@
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="19" t="s">
+      <c r="I19" s="67"/>
+      <c r="J19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="37"/>
+      <c r="N19" s="63"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2383,44 +2389,44 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:33" ht="13.8">
-      <c r="A20" s="21">
+    <row r="20" spans="1:33">
+      <c r="A20" s="10">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="10">
         <v>2</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="10">
         <f t="shared" ref="F20" si="0">SUM(G20+H20)</f>
         <v>10028</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="10">
         <v>8005</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="10">
         <v>2023</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="38"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2442,43 +2448,43 @@
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="21">
+      <c r="A21" s="10">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="10">
         <f t="shared" ref="F21" si="1">SUM(G21+H21)</f>
         <v>10028</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="10">
         <v>8005</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="10">
         <v>2023</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="38"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="24"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2677,7 +2683,7 @@
     <row r="27" spans="1:33">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="33"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2712,7 +2718,7 @@
     <row r="28" spans="1:33">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -36521,6 +36527,9 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:I17"/>
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="C18:C19"/>
@@ -36530,9 +36539,6 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:I17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -36540,18 +36546,19 @@
     <hyperlink ref="M21" location="精度!A1" display="精度シートに記載" xr:uid="{E2CDFF1D-BA3A-4708-8FDB-4F920BECBA75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6495D081-2C0A-4521-9740-469539C2FD54}">
-  <dimension ref="B1:O55"/>
+  <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -36559,1276 +36566,1597 @@
     <col min="3" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="13.8" thickBot="1">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B1" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="31"/>
+      <c r="C2" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="39"/>
+      <c r="C3" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="84"/>
+      <c r="I3" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="13.8" thickTop="1">
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E5" s="28">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="28">
+        <v>6083691.1836000001</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0.50119999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="28">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="E6" s="28">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="G6" s="49">
+        <v>1.0003</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.63570000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="28">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="E7" s="28">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0.6159</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.60660000000000003</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.66930000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="28">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="E8" s="28">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="H8" s="50">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.68910000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="28">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.9446</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="H9" s="50">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.67469999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.9516</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.71330000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="28">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="I11" s="28">
+        <v>5.6081000000000003</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.57979999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="G12" s="49">
+        <v>0.7641</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.66930000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="28">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0.71330000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="28">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="G14" s="49">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0.75229999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="28">
+        <v>11</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="G15" s="49">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.6593</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0.68120000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="28">
+        <v>12</v>
+      </c>
+      <c r="C16" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.9708</v>
+      </c>
+      <c r="G16" s="49">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0.80430000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="28">
+        <v>13</v>
+      </c>
+      <c r="C17" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0.6119</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0.78649999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="28">
+        <v>14</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.9748</v>
+      </c>
+      <c r="G18" s="49">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="H18" s="50">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="I18" s="28">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0.85170000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="28">
+        <v>15</v>
+      </c>
+      <c r="C19" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="H19" s="50">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0.83889999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="28">
+        <v>16</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.9708</v>
+      </c>
+      <c r="G20" s="49">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.85519999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="28">
+        <v>17</v>
+      </c>
+      <c r="C21" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="46">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F21" s="42">
+        <v>0.9728</v>
+      </c>
+      <c r="G21" s="49">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="H21" s="50">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.3503</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="28">
+        <v>18</v>
+      </c>
+      <c r="C22" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D22" s="46">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G22" s="49">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.77010000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="28">
+        <v>19</v>
+      </c>
+      <c r="C23" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D23" s="46">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F23" s="42">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0.4516</v>
+      </c>
+      <c r="H23" s="50">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.28589999999999999</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0.87890000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="28">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D24" s="46">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G24" s="49">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="H24" s="50">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="I24" s="28">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0.88880000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="28">
+        <v>21</v>
+      </c>
+      <c r="C25" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D25" s="46">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="E25" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H25" s="50">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0.89270000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="28">
+        <v>22</v>
+      </c>
+      <c r="C26" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D26" s="46">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.9748</v>
+      </c>
+      <c r="G26" s="49">
+        <v>0.3972</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0.89470000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="28">
+        <v>23</v>
+      </c>
+      <c r="C27" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D27" s="46">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0.9738</v>
+      </c>
+      <c r="G27" s="49">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0.2591</v>
+      </c>
+      <c r="J27" s="30">
+        <v>0.89270000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="28">
+        <v>24</v>
+      </c>
+      <c r="C28" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="I28" s="28">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="J28" s="30">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="28">
+        <v>25</v>
+      </c>
+      <c r="C29" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D29" s="46">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F29" s="42">
+        <v>0.9778</v>
+      </c>
+      <c r="G29" s="49">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="H29" s="50">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="J29" s="30">
+        <v>0.88529999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="28">
+        <v>26</v>
+      </c>
+      <c r="C30" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D30" s="46">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F30" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G30" s="49">
+        <v>0.3422</v>
+      </c>
+      <c r="H30" s="50">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="J30" s="30">
+        <v>0.92290000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="28">
+        <v>27</v>
+      </c>
+      <c r="C31" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D31" s="46">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="G31" s="49">
+        <v>0.32</v>
+      </c>
+      <c r="H31" s="50">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="J31" s="30">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="28">
+        <v>28</v>
+      </c>
+      <c r="C32" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D32" s="46">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="E32" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F32" s="42">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G32" s="49">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="H32" s="50">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="J32" s="30">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="28">
+        <v>29</v>
+      </c>
+      <c r="C33" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D33" s="46">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="E33" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="42">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="H33" s="50">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="J33" s="30">
+        <v>0.91990000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="28">
+        <v>30</v>
+      </c>
+      <c r="C34" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D34" s="46">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="E34" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="42">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="G34" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H34" s="50">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="I34" s="28">
+        <v>0.2011</v>
+      </c>
+      <c r="J34" s="30">
+        <v>0.9224</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="28">
+        <v>31</v>
+      </c>
+      <c r="C35" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D35" s="46">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="E35" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F35" s="42">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="G35" s="49">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H35" s="50">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="I35" s="28">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="J35" s="30">
+        <v>0.93179999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="28">
+        <v>32</v>
+      </c>
+      <c r="C36" s="29">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D36" s="46">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="E36" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F36" s="42">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G36" s="49">
+        <v>0.2853</v>
+      </c>
+      <c r="H36" s="50">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="I36" s="28">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="J36" s="30">
+        <v>0.90059999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="28">
+        <v>33</v>
+      </c>
+      <c r="C37" s="29">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D37" s="46">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G37" s="49">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="H37" s="50">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0.1522</v>
+      </c>
+      <c r="J37" s="30">
+        <v>0.94120000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="28">
+        <v>34</v>
+      </c>
+      <c r="C38" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D38" s="46">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="E38" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F38" s="42">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="G38" s="49">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="H38" s="50">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="I38" s="28">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="J38" s="30">
+        <v>0.93769999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="28">
+        <v>35</v>
+      </c>
+      <c r="C39" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D39" s="46">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="E39" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G39" s="49">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="I39" s="28">
+        <v>0.1525</v>
+      </c>
+      <c r="J39" s="30">
+        <v>0.94120000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="28">
+        <v>36</v>
+      </c>
+      <c r="C40" s="55">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D40" s="46">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="E40" s="56">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F40" s="57">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="G40" s="49">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="H40" s="50">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="I40" s="28">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="J40" s="30">
+        <v>0.94359999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="28">
+        <v>37</v>
+      </c>
+      <c r="C41" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D41" s="46">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="E41" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F41" s="42">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0.2422</v>
+      </c>
+      <c r="H41" s="50">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="I41" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="J41" s="30">
+        <v>0.94169999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="28">
+        <v>38</v>
+      </c>
+      <c r="C42" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D42" s="54">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="E42" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="G42" s="49">
+        <v>0.2366</v>
+      </c>
+      <c r="H42" s="50">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="I42" s="28">
+        <v>0.1817</v>
+      </c>
+      <c r="J42" s="30">
+        <v>0.93820000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="28">
+        <v>39</v>
+      </c>
+      <c r="C43" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G43" s="49">
+        <v>0.2349</v>
+      </c>
+      <c r="H43" s="50">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="I43" s="28">
+        <v>0.1905</v>
+      </c>
+      <c r="J43" s="30">
+        <v>0.92830000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="28">
+        <v>40</v>
+      </c>
+      <c r="C44" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D44" s="46">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="E44" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="G44" s="49">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="H44" s="50">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I44" s="28">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="J44" s="30">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="28">
+        <v>41</v>
+      </c>
+      <c r="C45" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D45" s="46">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="E45" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="G45" s="49">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="H45" s="50">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="I45" s="28">
+        <v>0.2051</v>
+      </c>
+      <c r="J45" s="30">
+        <v>0.91739999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="28">
+        <v>42</v>
+      </c>
+      <c r="C46" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D46" s="46">
+        <v>0.8972</v>
+      </c>
+      <c r="E46" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G46" s="49">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="H46" s="50">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="I46" s="28">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="J46" s="30">
+        <v>0.89670000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="28">
+        <v>43</v>
+      </c>
+      <c r="C47" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D47" s="46">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="E47" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F47" s="42">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="G47" s="49">
+        <v>0.2235</v>
+      </c>
+      <c r="H47" s="50">
+        <v>0.9325</v>
+      </c>
+      <c r="I47" s="28">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="J47" s="30">
+        <v>0.94069999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="28">
+        <v>44</v>
+      </c>
+      <c r="C48" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D48" s="46">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E48" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F48" s="42">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="G48" s="49">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="H48" s="50">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="I48" s="28">
+        <v>0.1489</v>
+      </c>
+      <c r="J48" s="30">
+        <v>0.9446</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="28">
+        <v>45</v>
+      </c>
+      <c r="C49" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D49" s="46">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F49" s="42">
+        <v>0.9758</v>
+      </c>
+      <c r="G49" s="49">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="H49" s="50">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="I49" s="28">
+        <v>0.1429</v>
+      </c>
+      <c r="J49" s="30">
+        <v>0.9476</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="28">
+        <v>46</v>
+      </c>
+      <c r="C50" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D50" s="46">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="E50" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F50" s="42">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G50" s="49">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="H50" s="50">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I50" s="56">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="J50" s="30">
+        <v>0.94810000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="28">
+        <v>47</v>
+      </c>
+      <c r="C51" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D51" s="46">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F51" s="42">
+        <v>0.9758</v>
+      </c>
+      <c r="G51" s="49">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="H51" s="50">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="I51" s="28">
+        <v>0.1386</v>
+      </c>
+      <c r="J51" s="30">
+        <v>0.94359999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="28">
+        <v>48</v>
+      </c>
+      <c r="C52" s="29">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D52" s="46">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F52" s="42">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="G52" s="49">
+        <v>0.1986</v>
+      </c>
+      <c r="H52" s="50">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="I52" s="28">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="J52" s="30">
+        <v>0.94269999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="28">
+        <v>49</v>
+      </c>
+      <c r="C53" s="29">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D53" s="46">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="E53" s="28">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F53" s="42">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="G53" s="49">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="H53" s="59">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="J53" s="30">
+        <v>0.9456</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="34">
+        <v>50</v>
+      </c>
+      <c r="C54" s="35">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D54" s="47">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="E54" s="34">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F54" s="43">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="G54" s="58">
+        <v>0.1958</v>
+      </c>
+      <c r="H54" s="51">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="I54" s="34">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="J54" s="60">
+        <v>0.9486</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <f>MIN(C5:C54)</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:J55" si="0">MIN(D5:D54)</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0.1958</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0.50119999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="B2" s="44"/>
-      <c r="C2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="57"/>
-      <c r="C3" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="58"/>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="13.8" thickBot="1">
-      <c r="B4" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="13.8" thickTop="1">
-      <c r="B5" s="41">
-        <v>1</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="41">
+      <c r="C56">
+        <f>MAX(C5:C54)</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:J56" si="1">MAX(D5:D54)</f>
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1.0003</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
         <v>6083691.1836000001</v>
       </c>
-      <c r="J5" s="43">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="41">
-        <v>2</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="76">
-        <v>1.0003</v>
-      </c>
-      <c r="H6" s="77">
-        <v>0.56259999999999999</v>
-      </c>
-      <c r="I6" s="41">
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="J6" s="43">
-        <v>0.63570000000000004</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="41">
-        <v>3</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="76">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="H7" s="77">
-        <v>0.6159</v>
-      </c>
-      <c r="I7" s="41">
-        <v>0.60660000000000003</v>
-      </c>
-      <c r="J7" s="43">
-        <v>0.66930000000000001</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="41">
-        <v>4</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="76">
-        <v>0.86650000000000005</v>
-      </c>
-      <c r="H8" s="77">
-        <v>0.65810000000000002</v>
-      </c>
-      <c r="I8" s="41">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="J8" s="43">
-        <v>0.68910000000000005</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="41">
-        <v>5</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="76">
-        <v>0.83350000000000002</v>
-      </c>
-      <c r="H9" s="77">
-        <v>0.68430000000000002</v>
-      </c>
-      <c r="I9" s="41">
-        <v>0.69930000000000003</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0.67469999999999997</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="41">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="76">
-        <v>0.80559999999999998</v>
-      </c>
-      <c r="H10" s="77">
-        <v>0.70289999999999997</v>
-      </c>
-      <c r="I10" s="41">
-        <v>0.76229999999999998</v>
-      </c>
-      <c r="J10" s="43">
-        <v>0.71330000000000005</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="41">
-        <v>7</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="76">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="H11" s="77">
-        <v>0.71409999999999996</v>
-      </c>
-      <c r="I11" s="41">
-        <v>5.6081000000000003</v>
-      </c>
-      <c r="J11" s="43">
-        <v>0.57979999999999998</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="41">
-        <v>8</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="76">
-        <v>0.7641</v>
-      </c>
-      <c r="H12" s="77">
-        <v>0.72719999999999996</v>
-      </c>
-      <c r="I12" s="41">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="J12" s="43">
-        <v>0.66930000000000001</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="41">
-        <v>9</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="76">
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="H13" s="77">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="I13" s="41">
-        <v>0.59670000000000001</v>
-      </c>
-      <c r="J13" s="43">
-        <v>0.71330000000000005</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="O13" s="52"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="41">
-        <v>10</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="76">
-        <v>0.70079999999999998</v>
-      </c>
-      <c r="H14" s="77">
-        <v>0.76139999999999997</v>
-      </c>
-      <c r="I14" s="41">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="J14" s="43">
-        <v>0.75229999999999997</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="41">
-        <v>11</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="76">
-        <v>0.67390000000000005</v>
-      </c>
-      <c r="H15" s="77">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="I15" s="41">
-        <v>0.6593</v>
-      </c>
-      <c r="J15" s="43">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="41">
-        <v>12</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="76">
-        <v>0.63629999999999998</v>
-      </c>
-      <c r="H16" s="77">
-        <v>0.78690000000000004</v>
-      </c>
-      <c r="I16" s="41">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="J16" s="43">
-        <v>0.80430000000000001</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="41">
-        <v>13</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="76">
-        <v>0.6119</v>
-      </c>
-      <c r="H17" s="77">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="I17" s="41">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="J17" s="43">
-        <v>0.78649999999999998</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="41">
-        <v>14</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="76">
-        <v>0.58320000000000005</v>
-      </c>
-      <c r="H18" s="77">
-        <v>0.81189999999999996</v>
-      </c>
-      <c r="I18" s="41">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="J18" s="43">
-        <v>0.85170000000000001</v>
-      </c>
-      <c r="L18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="41">
-        <v>15</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="76">
-        <v>0.55789999999999995</v>
-      </c>
-      <c r="H19" s="77">
-        <v>0.81589999999999996</v>
-      </c>
-      <c r="I19" s="41">
-        <v>0.34279999999999999</v>
-      </c>
-      <c r="J19" s="43">
-        <v>0.83889999999999998</v>
-      </c>
-      <c r="L19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="41">
-        <v>16</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="76">
-        <v>0.50319999999999998</v>
-      </c>
-      <c r="H20" s="77">
-        <v>0.83850000000000002</v>
-      </c>
-      <c r="I20" s="41">
-        <v>0.34370000000000001</v>
-      </c>
-      <c r="J20" s="43">
-        <v>0.85519999999999996</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="41">
-        <v>17</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="76">
-        <v>0.50770000000000004</v>
-      </c>
-      <c r="H21" s="77">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="I21" s="41">
-        <v>0.3503</v>
-      </c>
-      <c r="J21" s="43">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="L21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="41">
-        <v>18</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="76">
-        <v>0.46439999999999998</v>
-      </c>
-      <c r="H22" s="77">
-        <v>0.85219999999999996</v>
-      </c>
-      <c r="I22" s="41">
-        <v>0.55910000000000004</v>
-      </c>
-      <c r="J22" s="43">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="41">
-        <v>19</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="76">
-        <v>0.4516</v>
-      </c>
-      <c r="H23" s="77">
-        <v>0.85519999999999996</v>
-      </c>
-      <c r="I23" s="41">
-        <v>0.28589999999999999</v>
-      </c>
-      <c r="J23" s="43">
-        <v>0.87890000000000001</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="41">
-        <v>20</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="76">
-        <v>0.41460000000000002</v>
-      </c>
-      <c r="H24" s="77">
-        <v>0.87319999999999998</v>
-      </c>
-      <c r="I24" s="41">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="J24" s="43">
-        <v>0.88880000000000003</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="41">
-        <v>21</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="76">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="H25" s="77">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="I25" s="41">
-        <v>0.25019999999999998</v>
-      </c>
-      <c r="J25" s="43">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="41">
-        <v>22</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="76">
-        <v>0.3972</v>
-      </c>
-      <c r="H26" s="77">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="I26" s="41">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="J26" s="43">
-        <v>0.89470000000000005</v>
-      </c>
-      <c r="L26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="41">
-        <v>23</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="76">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="H27" s="77">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="I27" s="41">
-        <v>0.2591</v>
-      </c>
-      <c r="J27" s="43">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="41">
-        <v>24</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="76">
-        <v>0.36309999999999998</v>
-      </c>
-      <c r="H28" s="77">
-        <v>0.88690000000000002</v>
-      </c>
-      <c r="I28" s="41">
-        <v>0.63180000000000003</v>
-      </c>
-      <c r="J28" s="43">
-        <v>0.76959999999999995</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="41">
-        <v>25</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="76">
-        <v>0.34720000000000001</v>
-      </c>
-      <c r="H29" s="77">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="I29" s="41">
-        <v>0.29039999999999999</v>
-      </c>
-      <c r="J29" s="43">
-        <v>0.88529999999999998</v>
-      </c>
-      <c r="L29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="41">
-        <v>26</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="76">
-        <v>0.3422</v>
-      </c>
-      <c r="H30" s="77">
-        <v>0.89319999999999999</v>
-      </c>
-      <c r="I30" s="41">
-        <v>0.19839999999999999</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0.92290000000000005</v>
-      </c>
-      <c r="L30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="41">
-        <v>27</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="76">
-        <v>0.32</v>
-      </c>
-      <c r="H31" s="77">
-        <v>0.90329999999999999</v>
-      </c>
-      <c r="I31" s="41">
-        <v>0.20749999999999999</v>
-      </c>
-      <c r="J31" s="43">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="L31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="41">
-        <v>28</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="76">
-        <v>0.30020000000000002</v>
-      </c>
-      <c r="H32" s="77">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="I32" s="41">
-        <v>0.18429999999999999</v>
-      </c>
-      <c r="J32" s="43">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="L32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="41">
-        <v>29</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="76">
-        <v>0.30640000000000001</v>
-      </c>
-      <c r="H33" s="77">
-        <v>0.90620000000000001</v>
-      </c>
-      <c r="I33" s="41">
-        <v>0.19439999999999999</v>
-      </c>
-      <c r="J33" s="43">
-        <v>0.91990000000000005</v>
-      </c>
-      <c r="L33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="41">
-        <v>30</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="76">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H34" s="77">
-        <v>0.91059999999999997</v>
-      </c>
-      <c r="I34" s="41">
-        <v>0.2011</v>
-      </c>
-      <c r="J34" s="43">
-        <v>0.9224</v>
-      </c>
-      <c r="L34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="41">
-        <v>31</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="76">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="H35" s="77">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="I35" s="41">
-        <v>0.18010000000000001</v>
-      </c>
-      <c r="J35" s="43">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="L35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="41">
-        <v>32</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="76">
-        <v>0.2853</v>
-      </c>
-      <c r="H36" s="77">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="I36" s="41">
-        <v>0.27510000000000001</v>
-      </c>
-      <c r="J36" s="43">
-        <v>0.90059999999999996</v>
-      </c>
-      <c r="L36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="41">
-        <v>33</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="76">
-        <v>0.26960000000000001</v>
-      </c>
-      <c r="H37" s="77">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="I37" s="41">
-        <v>0.1522</v>
-      </c>
-      <c r="J37" s="43">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="L37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="41">
-        <v>34</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="76">
-        <v>0.25280000000000002</v>
-      </c>
-      <c r="H38" s="77">
-        <v>0.92320000000000002</v>
-      </c>
-      <c r="I38" s="41">
-        <v>0.17419999999999999</v>
-      </c>
-      <c r="J38" s="43">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="L38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="41">
-        <v>35</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="76">
-        <v>0.27210000000000001</v>
-      </c>
-      <c r="H39" s="77">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="I39" s="41">
-        <v>0.1525</v>
-      </c>
-      <c r="J39" s="43">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="L39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="41">
-        <v>36</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="76">
-        <v>0.24729999999999999</v>
-      </c>
-      <c r="H40" s="77">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="I40" s="41">
-        <v>0.16589999999999999</v>
-      </c>
-      <c r="J40" s="43">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="L40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="41">
-        <v>37</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="76">
-        <v>0.2422</v>
-      </c>
-      <c r="H41" s="77">
-        <v>0.92720000000000002</v>
-      </c>
-      <c r="I41" s="41">
-        <v>0.1472</v>
-      </c>
-      <c r="J41" s="43">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="L41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="41">
-        <v>38</v>
-      </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="76">
-        <v>0.2366</v>
-      </c>
-      <c r="H42" s="77">
-        <v>0.92889999999999995</v>
-      </c>
-      <c r="I42" s="41">
-        <v>0.1817</v>
-      </c>
-      <c r="J42" s="43">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="L42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="41">
-        <v>39</v>
-      </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="76">
-        <v>0.2349</v>
-      </c>
-      <c r="H43" s="77">
-        <v>0.92979999999999996</v>
-      </c>
-      <c r="I43" s="41">
-        <v>0.1905</v>
-      </c>
-      <c r="J43" s="43">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="L43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="41">
-        <v>40</v>
-      </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="76">
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="H44" s="77">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="I44" s="41">
-        <v>0.18559999999999999</v>
-      </c>
-      <c r="J44" s="43">
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="L44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="41">
-        <v>41</v>
-      </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="76">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="H45" s="77">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="I45" s="41">
-        <v>0.2051</v>
-      </c>
-      <c r="J45" s="43">
-        <v>0.91739999999999999</v>
-      </c>
-      <c r="L45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="41">
-        <v>42</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="76">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="H46" s="77">
-        <v>0.93779999999999997</v>
-      </c>
-      <c r="I46" s="41">
-        <v>0.27939999999999998</v>
-      </c>
-      <c r="J46" s="43">
-        <v>0.89670000000000005</v>
-      </c>
-      <c r="L46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="41">
-        <v>43</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="76">
-        <v>0.2235</v>
-      </c>
-      <c r="H47" s="77">
-        <v>0.9325</v>
-      </c>
-      <c r="I47" s="41">
-        <v>0.18210000000000001</v>
-      </c>
-      <c r="J47" s="43">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="L47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="41">
-        <v>44</v>
-      </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="76">
-        <v>0.22159999999999999</v>
-      </c>
-      <c r="H48" s="77">
-        <v>0.93289999999999995</v>
-      </c>
-      <c r="I48" s="41">
-        <v>0.1489</v>
-      </c>
-      <c r="J48" s="43">
-        <v>0.9446</v>
-      </c>
-      <c r="L48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="41">
-        <v>45</v>
-      </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="76">
-        <v>0.22309999999999999</v>
-      </c>
-      <c r="H49" s="77">
-        <v>0.93340000000000001</v>
-      </c>
-      <c r="I49" s="41">
-        <v>0.1429</v>
-      </c>
-      <c r="J49" s="43">
-        <v>0.9476</v>
-      </c>
-      <c r="L49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="41">
-        <v>46</v>
-      </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="76">
-        <v>0.21310000000000001</v>
-      </c>
-      <c r="H50" s="77">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="I50" s="41">
-        <v>0.12720000000000001</v>
-      </c>
-      <c r="J50" s="43">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="L50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="41">
-        <v>47</v>
-      </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="76">
-        <v>0.21510000000000001</v>
-      </c>
-      <c r="H51" s="77">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="I51" s="41">
-        <v>0.1386</v>
-      </c>
-      <c r="J51" s="43">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="L51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="41">
-        <v>48</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="76">
-        <v>0.1986</v>
-      </c>
-      <c r="H52" s="77">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="I52" s="41">
-        <v>0.17030000000000001</v>
-      </c>
-      <c r="J52" s="43">
-        <v>0.94269999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="41">
-        <v>49</v>
-      </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="76">
-        <v>0.20469999999999999</v>
-      </c>
-      <c r="H53" s="77">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="I53" s="41">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="J53" s="43">
-        <v>0.9456</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="48">
-        <v>50</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="78">
-        <v>0.1958</v>
-      </c>
-      <c r="H54" s="79">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="I54" s="48">
-        <v>0.14680000000000001</v>
-      </c>
-      <c r="J54" s="50">
+      <c r="J56">
+        <f t="shared" si="1"/>
         <v>0.9486</v>
       </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -37841,5 +38169,6 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/oouchi/パターン評価結果/【大内担当分のみ】パターン検証.xlsx
+++ b/oouchi/パターン評価結果/【大内担当分のみ】パターン検証.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkrf\OneDrive\プロジェクト活動\2019年度\topse_SW実践演習\05_パターン評価\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkrf\Github\mkkrf137\topse2019-kaggle\team\oouchi\パターン評価結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="8_{B4CDBF86-405C-453D-BA1D-5B4EE1AF9EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07C27D59-DA3A-494F-BD3F-1097B3095E45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D425E4-8F75-41F1-A508-ECE9EA98C781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>■前提</t>
   </si>
@@ -416,12 +416,178 @@
     <t>1h32m02s</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>条件(実施内容#1)
+ガイド無</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>条件(実施内容#2)
+ガイド有</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ガイドを読み解き、アーキと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Augumentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を決める時間</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ整備（Kaggle等から入手したオリジナルのデータセットファイルを、データローダが扱えるようにフォルダを作り、そこに学習データと評価データを放り込む処理）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガイド活用効果</t>
+    <rPh sb="3" eb="5">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【参考】実装時間（単位：H）</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Augumentation設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モデル定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>転移学習実装</t>
+    <rPh sb="0" eb="2">
+      <t>テンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>その他（ライブラリロードとか）</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実装総時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　うち、データ整備にかかる時間の割合</t>
+    <rPh sb="7" eb="9">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <numFmts count="2">
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -468,13 +634,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -510,6 +669,20 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1169,7 +1342,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1210,7 +1383,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,45 +1401,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1283,6 +1453,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,54 +1482,74 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1567,8 +1773,8 @@
   </sheetPr>
   <dimension ref="A1:AG993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -1576,7 +1782,7 @@
     <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="4" width="26.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
@@ -1761,10 +1967,10 @@
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2"/>
@@ -2247,28 +2453,28 @@
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="64" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="61" t="s">
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="68" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="2"/>
@@ -2292,34 +2498,34 @@
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="66" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="66" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="72" t="s">
+      <c r="K18" s="67"/>
+      <c r="L18" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="62"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2341,11 +2547,11 @@
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="6" t="s">
         <v>27</v>
       </c>
@@ -2355,7 +2561,7 @@
       <c r="H19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="8" t="s">
         <v>30</v>
       </c>
@@ -2368,7 +2574,7 @@
       <c r="M19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="63"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2418,15 +2624,15 @@
       <c r="I20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2476,15 +2682,15 @@
       <c r="I21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37" t="s">
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2575,11 +2781,12 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:33" ht="16.2">
+      <c r="A24" s="85" t="s">
+        <v>71</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2610,12 +2817,22 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+    <row r="25" spans="1:33" ht="24">
+      <c r="A25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2645,12 +2862,23 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:33">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+    <row r="26" spans="1:33" ht="49.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="89">
+        <v>0</v>
+      </c>
+      <c r="D26" s="90">
+        <v>1</v>
+      </c>
+      <c r="E26" s="92">
+        <f>C26-D26</f>
+        <v>-1</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2680,12 +2908,23 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
     </row>
-    <row r="27" spans="1:33">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+    <row r="27" spans="1:33" ht="108">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="89">
+        <v>1.75</v>
+      </c>
+      <c r="D27" s="89">
+        <v>1.75</v>
+      </c>
+      <c r="E27" s="92">
+        <f t="shared" ref="E27:E31" si="2">C27-D27</f>
+        <v>0</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2716,11 +2955,22 @@
       <c r="AG27" s="2"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="90">
+        <v>0</v>
+      </c>
+      <c r="E28" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2751,11 +3001,22 @@
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="5">
+        <v>4</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="89">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="92">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2786,11 +3047,22 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="5">
+        <v>5</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="89">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="90">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2820,12 +3092,23 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" spans="1:33">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+    <row r="31" spans="1:33" ht="24">
+      <c r="A31" s="5">
+        <v>6</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="90">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2857,10 +3140,21 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="93">
+        <f>SUM(C26:C31)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D32" s="93">
+        <f>SUM(D26:D31)</f>
+        <v>3.1</v>
+      </c>
+      <c r="E32" s="93">
+        <f>SUM(E26:E31)</f>
+        <v>1.4</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2890,11 +3184,19 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" ht="24">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="95">
+        <f>C27/C32</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D33" s="95">
+        <f>D27/D32</f>
+        <v>0.56451612903225801</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -36567,12 +36869,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13.8" thickBot="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="75" t="s">
         <v>59</v>
       </c>
@@ -36587,7 +36889,7 @@
       <c r="J2" s="76"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="78" t="s">
         <v>57</v>
       </c>
@@ -36606,1486 +36908,1486 @@
       <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:10" ht="13.8" thickBot="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.8" thickTop="1">
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.77400000000000002</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>0.87490000000000001</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>6083691.1836000001</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>0.87219999999999998</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>0.90210000000000001</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <v>1.0003</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="49">
         <v>0.56259999999999999</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <v>0.66359999999999997</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>0.63570000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>4.3E-3</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.88280000000000003</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>0.92730000000000001</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <v>0.91790000000000005</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>0.6159</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <v>0.60660000000000003</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>0.66930000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>4</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.88919999999999999</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>0.93669999999999998</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <v>0.86650000000000005</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <v>0.65810000000000002</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>0.68910000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.88880000000000003</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>0.9446</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>0.83350000000000002</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="49">
         <v>0.68430000000000002</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>0.69930000000000003</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>0.67469999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>6</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.88890000000000002</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>0.9516</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <v>0.80559999999999998</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <v>0.70289999999999997</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>0.76229999999999998</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>0.71330000000000005</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>7</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.89159999999999995</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>0.95650000000000002</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <v>0.71409999999999996</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>5.6081000000000003</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>0.57979999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>8</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.89070000000000005</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>1.9E-3</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>0.96189999999999998</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <v>0.7641</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <v>0.72719999999999996</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>0.71360000000000001</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>0.66930000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>9</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.89370000000000005</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>1.8E-3</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>0.96689999999999998</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <v>0.72640000000000005</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <v>0.74399999999999999</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <v>0.59670000000000001</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>0.71330000000000005</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>10</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.89539999999999997</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>0.96489999999999998</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="48">
         <v>0.70079999999999998</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <v>0.76139999999999997</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <v>0.71740000000000004</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>0.75229999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>11</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="45">
         <v>0.90059999999999996</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>1.5E-3</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>0.96540000000000004</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="48">
         <v>0.67390000000000005</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <v>0.76800000000000002</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>0.6593</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>0.68120000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>12</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="45">
         <v>0.89439999999999997</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>1.4E-3</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>0.9708</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <v>0.63629999999999998</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>0.78690000000000004</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <v>0.42620000000000002</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>0.80430000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>13</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="45">
         <v>0.89410000000000001</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>1.4E-3</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>0.97030000000000005</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <v>0.6119</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>0.79400000000000004</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>0.45019999999999999</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>0.78649999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>14</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="45">
         <v>0.89810000000000001</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>0.9748</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="48">
         <v>0.58320000000000005</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <v>0.81189999999999996</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>0.34989999999999999</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>0.85170000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>15</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="45">
         <v>0.89829999999999999</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>0.96940000000000004</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="48">
         <v>0.55789999999999995</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>0.81589999999999996</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>0.34279999999999999</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>0.83889999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>16</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>0.89219999999999999</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <v>0.9708</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="48">
         <v>0.50319999999999998</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="49">
         <v>0.83850000000000002</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>0.34370000000000001</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <v>0.85519999999999996</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>17</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="45">
         <v>0.89029999999999998</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <v>0.9728</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="48">
         <v>0.50770000000000004</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="49">
         <v>0.83399999999999996</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>0.3503</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>18</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="45">
         <v>0.89419999999999999</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="48">
         <v>0.46439999999999998</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="49">
         <v>0.85219999999999996</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="27">
         <v>0.55910000000000004</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <v>0.77010000000000001</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>19</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="45">
         <v>0.89759999999999995</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>0.97430000000000005</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="48">
         <v>0.4516</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="49">
         <v>0.85519999999999996</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <v>0.28589999999999999</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <v>0.87890000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>20</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="45">
         <v>0.89770000000000005</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="48">
         <v>0.41460000000000002</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="49">
         <v>0.87319999999999998</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <v>0.30559999999999998</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <v>0.88880000000000003</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>21</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="45">
         <v>0.89419999999999999</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="41">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="48">
         <v>0.40699999999999997</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="49">
         <v>0.87470000000000003</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <v>0.25019999999999998</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>0.89270000000000005</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>22</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="45">
         <v>0.89780000000000004</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <v>0.9748</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="48">
         <v>0.3972</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="49">
         <v>0.87549999999999994</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <v>0.24779999999999999</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <v>0.89470000000000005</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>23</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <v>0.89290000000000003</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <v>0.9738</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="48">
         <v>0.37030000000000002</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="49">
         <v>0.88619999999999999</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <v>0.2591</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="29">
         <v>0.89270000000000005</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>24</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="45">
         <v>0.89629999999999999</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="48">
         <v>0.36309999999999998</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="49">
         <v>0.88690000000000002</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>0.63180000000000003</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="29">
         <v>0.76959999999999995</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>25</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="45">
         <v>0.89459999999999995</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="41">
         <v>0.9778</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="48">
         <v>0.34720000000000001</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="49">
         <v>0.89359999999999995</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <v>0.29039999999999999</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="29">
         <v>0.88529999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <v>26</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="45">
         <v>0.89359999999999995</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="48">
         <v>0.3422</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="49">
         <v>0.89319999999999999</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <v>0.19839999999999999</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <v>0.92290000000000005</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>27</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="45">
         <v>0.89480000000000004</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <v>0.97529999999999994</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="48">
         <v>0.32</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="49">
         <v>0.90329999999999999</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="27">
         <v>0.20749999999999999</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>28</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="45">
         <v>0.89639999999999997</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <v>0.98019999999999996</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="48">
         <v>0.30020000000000002</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="49">
         <v>0.90639999999999998</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <v>0.18429999999999999</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <v>0.92589999999999995</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>29</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="45">
         <v>0.89380000000000004</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <v>0.97919999999999996</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="48">
         <v>0.30640000000000001</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="49">
         <v>0.90620000000000001</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="27">
         <v>0.19439999999999999</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="29">
         <v>0.91990000000000005</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>30</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="45">
         <v>0.89770000000000005</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>0.97870000000000001</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="48">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="49">
         <v>0.91059999999999997</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <v>0.2011</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <v>0.9224</v>
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>31</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="45">
         <v>0.89780000000000004</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <v>0.97870000000000001</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="48">
         <v>0.30399999999999999</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="49">
         <v>0.90759999999999996</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <v>0.18010000000000001</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>0.93179999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>32</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="45">
         <v>0.90110000000000001</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="41">
         <v>0.98070000000000002</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="48">
         <v>0.2853</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="49">
         <v>0.91039999999999999</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="27">
         <v>0.27510000000000001</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <v>0.90059999999999996</v>
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>33</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="45">
         <v>0.89639999999999997</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <v>0.98019999999999996</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="48">
         <v>0.26960000000000001</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="49">
         <v>0.91510000000000002</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="27">
         <v>0.1522</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>34</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="45">
         <v>0.89639999999999997</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="41">
         <v>0.97870000000000001</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="48">
         <v>0.25280000000000002</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="49">
         <v>0.92320000000000002</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="27">
         <v>0.17419999999999999</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>0.93769999999999998</v>
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="28">
+      <c r="B39" s="27">
         <v>35</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="45">
         <v>0.90080000000000005</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="41">
         <v>0.98070000000000002</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="48">
         <v>0.27210000000000001</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="49">
         <v>0.91890000000000005</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="27">
         <v>0.1525</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <v>36</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="45">
         <v>0.90010000000000001</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="55">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="56">
         <v>0.98619999999999997</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="48">
         <v>0.24729999999999999</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="49">
         <v>0.92420000000000002</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="27">
         <v>0.16589999999999999</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <v>0.94359999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="28">
+      <c r="B41" s="27">
         <v>37</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="45">
         <v>0.89380000000000004</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="41">
         <v>0.98319999999999996</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="48">
         <v>0.2422</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="49">
         <v>0.92720000000000002</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="27">
         <v>0.1472</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="28">
+      <c r="B42" s="27">
         <v>38</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="53">
         <v>0.90239999999999998</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="41">
         <v>0.98319999999999996</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G42" s="48">
         <v>0.2366</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42" s="49">
         <v>0.92889999999999995</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="27">
         <v>0.1817</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <v>0.93820000000000003</v>
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="28">
+      <c r="B43" s="27">
         <v>39</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="45">
         <v>0.89610000000000001</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="41">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="48">
         <v>0.2349</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="49">
         <v>0.92979999999999996</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="27">
         <v>0.1905</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <v>0.92830000000000001</v>
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="28">
+      <c r="B44" s="27">
         <v>40</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="45">
         <v>0.89939999999999998</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="41">
         <v>0.98119999999999996</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="48">
         <v>0.23039999999999999</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="49">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="27">
         <v>0.18559999999999999</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="29">
         <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="28">
+      <c r="B45" s="27">
         <v>41</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="45">
         <v>0.89570000000000005</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="41">
         <v>0.98219999999999996</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G45" s="48">
         <v>0.24410000000000001</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="49">
         <v>0.92689999999999995</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="27">
         <v>0.2051</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="29">
         <v>0.91739999999999999</v>
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="28">
+      <c r="B46" s="27">
         <v>42</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="45">
         <v>0.8972</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="41">
         <v>0.98070000000000002</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G46" s="48">
         <v>0.21029999999999999</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="49">
         <v>0.93779999999999997</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="27">
         <v>0.27939999999999998</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <v>0.89670000000000005</v>
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="28">
+      <c r="B47" s="27">
         <v>43</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="45">
         <v>0.89780000000000004</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="41">
         <v>0.97919999999999996</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47" s="48">
         <v>0.2235</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="49">
         <v>0.9325</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="27">
         <v>0.18210000000000001</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="29">
         <v>0.94069999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="28">
+      <c r="B48" s="27">
         <v>44</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="45">
         <v>0.89359999999999995</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="41">
         <v>0.97870000000000001</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="48">
         <v>0.22159999999999999</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="49">
         <v>0.93289999999999995</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="27">
         <v>0.1489</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="29">
         <v>0.9446</v>
       </c>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>45</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="45">
         <v>0.90110000000000001</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="41">
         <v>0.9758</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="48">
         <v>0.22309999999999999</v>
       </c>
-      <c r="H49" s="50">
+      <c r="H49" s="49">
         <v>0.93340000000000001</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="27">
         <v>0.1429</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="29">
         <v>0.9476</v>
       </c>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="28">
+      <c r="B50" s="27">
         <v>46</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="45">
         <v>0.89810000000000001</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="41">
         <v>0.98019999999999996</v>
       </c>
-      <c r="G50" s="49">
+      <c r="G50" s="48">
         <v>0.21310000000000001</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="49">
         <v>0.93700000000000006</v>
       </c>
-      <c r="I50" s="56">
+      <c r="I50" s="55">
         <v>0.12720000000000001</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="29">
         <v>0.94810000000000005</v>
       </c>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="28">
+      <c r="B51" s="27">
         <v>47</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="28">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="45">
         <v>0.89219999999999999</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="41">
         <v>0.9758</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="48">
         <v>0.21510000000000001</v>
       </c>
-      <c r="H51" s="50">
+      <c r="H51" s="49">
         <v>0.93369999999999997</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="27">
         <v>0.1386</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="29">
         <v>0.94359999999999999</v>
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="28">
+      <c r="B52" s="27">
         <v>48</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="28">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="45">
         <v>0.89939999999999998</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="41">
         <v>0.97529999999999994</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="48">
         <v>0.1986</v>
       </c>
-      <c r="H52" s="50">
+      <c r="H52" s="49">
         <v>0.94169999999999998</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="27">
         <v>0.17030000000000001</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="29">
         <v>0.94269999999999998</v>
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="28">
+      <c r="B53" s="27">
         <v>49</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="28">
         <v>3.8E-3</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="45">
         <v>0.89839999999999998</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="41">
         <v>0.97919999999999996</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="48">
         <v>0.20469999999999999</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="58">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="27">
         <v>0.14779999999999999</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="29">
         <v>0.9456</v>
       </c>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="34">
+      <c r="B54" s="33">
         <v>50</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="34">
         <v>3.8E-3</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="46">
         <v>0.89870000000000005</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="33">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="42">
         <v>0.97919999999999996</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="57">
         <v>0.1958</v>
       </c>
-      <c r="H54" s="51">
+      <c r="H54" s="50">
         <v>0.94240000000000002</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="33">
         <v>0.14680000000000001</v>
       </c>
-      <c r="J54" s="60">
+      <c r="J54" s="59">
         <v>0.9486</v>
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C55">
@@ -38122,7 +38424,7 @@
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C56">
